--- a/scripts/experiments/results.xlsx
+++ b/scripts/experiments/results.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="k uniform - delay" sheetId="1" r:id="rId1"/>
     <sheet name="k exp - delay" sheetId="2" r:id="rId2"/>
+    <sheet name="k exp - pkt queue" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4356" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4383" uniqueCount="972">
   <si>
     <t>k_max</t>
   </si>
@@ -26828,8 +26829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC693"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S57" sqref="S57"/>
+    <sheetView topLeftCell="P41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN23" sqref="AN23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39518,8 +39519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q693"/>
   <sheetViews>
-    <sheetView topLeftCell="S46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN58" sqref="AN58"/>
+    <sheetView topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52200,4 +52201,424 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G30)/I$2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>29</v>
+      </c>
+      <c r="J2" t="e">
+        <f>CONFIDENCE(K$2,L2,I$2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2">
+        <v>0.01</v>
+      </c>
+      <c r="L2" t="e">
+        <f>STDEV(G2:G30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N27" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P27" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="28" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <v>0.5</v>
+      </c>
+      <c r="Q28">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>9</v>
+      </c>
+      <c r="P40" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="41" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <v>0.5</v>
+      </c>
+      <c r="Q41">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="42" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N53" t="s">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>9</v>
+      </c>
+      <c r="P53" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="54" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N54">
+        <v>0.5</v>
+      </c>
+      <c r="Q54">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="55" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N63">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N64">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/scripts/experiments/results.xlsx
+++ b/scripts/experiments/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="k uniform - delay" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4383" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4465" uniqueCount="973">
   <si>
     <t>k_max</t>
   </si>
@@ -2937,6 +2937,9 @@
   </si>
   <si>
     <t>kExponentialCalibration-1649-20231219-00:22:37-15084</t>
+  </si>
+  <si>
+    <t>mean pkt queue</t>
   </si>
 </sst>
 </file>
@@ -3049,7 +3052,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4333,7 +4335,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4456,7 +4457,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4537,7 +4537,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7821,7 +7820,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8811,7 +8809,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8934,7 +8931,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9015,7 +9011,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9140,7 +9135,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10132,7 +10126,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10256,7 +10249,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10337,6 +10329,3592 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Mean number of packets in queue</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>k exponential</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k_mean=0.1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$2:$M$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>101.27044810913452</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>74.23260132803658</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>62.198682140226857</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>58.620525101298</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>57.118633859803595</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>56.814000207190482</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>61.337136743737766</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>79.832409180873242</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>139.17156982126821</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>396.7372279677445</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2320.4168180904726</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$2:$M$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>101.27044810913452</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>74.23260132803658</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>62.198682140226857</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>58.620525101298</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>57.118633859803595</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>56.814000207190482</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>61.337136743737766</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>79.832409180873242</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>139.17156982126821</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>396.7372279677445</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2320.4168180904726</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$K$2:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$L$2:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>281.8213842997306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204.8682110504476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.82637654482758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162.32924671724143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.61934615482761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157.65651318206895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>173.23190067931037</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>267.19184673448279</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>745.6190491103448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2359.6991886896549</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8946.4871296896563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-657A-4D01-B652-BA84ED1D6516}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>k_mean=0.6s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$15:$M$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>8.9273216524195561E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3949473685421297E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.2839686124086315E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.351166174564169E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.0056304721240507E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.4476023718340499E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.3906175705446865E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.5479871809460541E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.0034872444556924E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.5978395486952912E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.8543358592227615E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$15:$M$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>8.9273216524195561E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3949473685421297E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.2839686124086315E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.351166174564169E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.0056304721240507E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.4476023718340499E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.3906175705446865E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.5479871809460541E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.0034872444556924E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.5978395486952912E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.8543358592227615E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$K$15:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$L$15:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.22467222748275859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1064722931034464E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4223584206896547E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6543961413793099E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3162221448275855E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1110825689655177E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8681019413793087E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1178730275862059E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6006203206896551E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3567597655172411E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5802839793103446E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-657A-4D01-B652-BA84ED1D6516}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>k_mean=1.1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$28:$M$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>1.0197117485171347E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.8485180448092672E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.7141699112680315E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.7456924708491514E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.2204000834257677E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.6082190940555228E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4160981861099989E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.7051770338967502E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.5069221956413532E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.0726699907858055E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.9327409702579336E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$28:$M$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>1.0197117485171347E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.8485180448092672E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.7141699112680315E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.7456924708491514E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.2204000834257677E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.6082190940555228E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4160981861099989E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.7051770338967502E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.5069221956413532E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.0726699907858055E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.9327409702579336E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$K$28:$K$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$L$28:$L$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.8816748034482752E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6888112620689655E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7192747862068966E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3917665103448275E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2609867965517243E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1650575620689656E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0294446344827587E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0466269137931035E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1259184275862071E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2672535413793106E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4366141344827587E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-657A-4D01-B652-BA84ED1D6516}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>k_mean=1.6s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$41:$M$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>5.4284218580809523E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5631158709596885E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0254879334001953E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8827977597206318E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.509964669795349E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4873777835121442E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1625158617253096E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.3064261255831653E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.4731990360072241E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.5364122768506556E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.0110517206103416E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$41:$M$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>5.4284218580809523E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5631158709596885E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0254879334001953E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8827977597206318E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.509964669795349E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4873777835121442E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1625158617253096E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.3064261255831653E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.4731990360072241E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.5364122768506556E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.0110517206103416E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$K$41:$K$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$L$41:$L$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.3348953758620695E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5257506137931033E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.290282241379311E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.335484379310345E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4652703103448275E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9084253448275868E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9911212896317702E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9539212758620676E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2786706551724129E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.770133310344829E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5041435517241382E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-657A-4D01-B652-BA84ED1D6516}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>k_mean=2.1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$54:$M$64</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>4.161068230782777E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7763198776480848E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.3585646878839293E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.2154397168225438E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.1810561361870872E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2459466642550154E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1762702581926528E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2554261015831564E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.1699279901088458E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.7844675807013183E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.9733463512076638E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$54:$M$64</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>4.161068230782777E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7763198776480848E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.3585646878839293E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.2154397168225438E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.1810561361870872E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2459466642550154E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1762702581926528E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2554261015831564E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.1699279901088458E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.7844675807013183E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.9733463512076638E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$K$54:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$L$54:$L$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.2984031793103446E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0468611206896553E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1614895862068973E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7471125517241372E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0793589310344821E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7367238275862065E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0346357586206896E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9481621379310349E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1560356551724135E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4193243103448267E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8530281379310352E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-657A-4D01-B652-BA84ED1D6516}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="613062096"/>
+        <c:axId val="613062928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="613062096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="31"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>t[s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613062928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="613062928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>E[Nq] </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613062096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> number of packets in queue</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>k exponential</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(zoomed-in)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k_mean=0.1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$2:$M$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>101.27044810913452</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>74.23260132803658</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>62.198682140226857</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>58.620525101298</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>57.118633859803595</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>56.814000207190482</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>61.337136743737766</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>79.832409180873242</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$2:$M$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>101.27044810913452</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>74.23260132803658</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>62.198682140226857</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>58.620525101298</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>57.118633859803595</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>56.814000207190482</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>61.337136743737766</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>79.832409180873242</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$L$2:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>281.8213842997306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204.8682110504476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.82637654482758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162.32924671724143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.61934615482761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157.65651318206895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>173.23190067931037</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>267.19184673448279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90FE-4B51-9210-26511D78742A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1437686400"/>
+        <c:axId val="1437683488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1437686400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="31"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1437683488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1437683488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>E[Nq]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1437686400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> number of packets in queue</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t>k exponential</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t>(zoomed-in)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k_mean=0.6s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="97000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$15:$M$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>8.9273216524195561E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3949473685421297E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.2839686124086315E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.351166174564169E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.0056304721240507E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.4476023718340499E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.3906175705446865E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.5479871809460541E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.0034872444556924E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.5978395486952912E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.8543358592227615E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$15:$M$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>8.9273216524195561E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3949473685421297E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.2839686124086315E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.351166174564169E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.0056304721240507E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.4476023718340499E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.3906175705446865E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.5479871809460541E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.0034872444556924E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.5978395486952912E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.8543358592227615E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$K$15:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$L$15:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.22467222748275859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1064722931034464E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4223584206896547E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6543961413793099E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3162221448275855E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1110825689655177E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8681019413793087E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1178730275862059E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6006203206896551E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3567597655172411E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5802839793103446E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09A7-4C63-83F1-B23CF315B061}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>k_mean=1.1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$28:$M$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>1.0197117485171347E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.8485180448092672E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.7141699112680315E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.7456924708491514E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.2204000834257677E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.6082190940555228E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4160981861099989E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.7051770338967502E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.5069221956413532E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.0726699907858055E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.9327409702579336E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$28:$M$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>1.0197117485171347E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.8485180448092672E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.7141699112680315E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.7456924708491514E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.2204000834257677E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.6082190940555228E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4160981861099989E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.7051770338967502E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.5069221956413532E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.0726699907858055E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.9327409702579336E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$K$28:$K$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$L$28:$L$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.8816748034482752E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6888112620689655E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7192747862068966E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3917665103448275E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2609867965517243E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1650575620689656E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0294446344827587E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0466269137931035E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1259184275862071E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2672535413793106E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4366141344827587E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-09A7-4C63-83F1-B23CF315B061}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>k_mean=1.6s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$41:$M$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>5.4284218580809523E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5631158709596885E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0254879334001953E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8827977597206318E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.509964669795349E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4873777835121442E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1625158617253096E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.3064261255831653E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.4731990360072241E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.5364122768506556E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.0110517206103416E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$41:$M$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>5.4284218580809523E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5631158709596885E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0254879334001953E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8827977597206318E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.509964669795349E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4873777835121442E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1625158617253096E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.3064261255831653E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.4731990360072241E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.5364122768506556E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.0110517206103416E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$K$41:$K$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$L$41:$L$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.3348953758620695E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5257506137931033E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.290282241379311E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.335484379310345E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4652703103448275E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9084253448275868E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9911212896317702E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9539212758620676E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2786706551724129E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.770133310344829E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5041435517241382E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-09A7-4C63-83F1-B23CF315B061}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>k_mean=2.1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$54:$M$64</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>4.161068230782777E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7763198776480848E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.3585646878839293E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.2154397168225438E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.1810561361870872E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2459466642550154E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1762702581926528E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2554261015831564E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.1699279901088458E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.7844675807013183E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.9733463512076638E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - pkt queue'!$M$54:$M$64</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>4.161068230782777E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7763198776480848E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.3585646878839293E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.2154397168225438E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.1810561361870872E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2459466642550154E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1762702581926528E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2554261015831564E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.1699279901088458E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.7844675807013183E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.9733463512076638E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$K$54:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - pkt queue'!$L$54:$L$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.2984031793103446E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0468611206896553E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1614895862068973E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7471125517241372E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0793589310344821E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7367238275862065E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0346357586206896E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9481621379310349E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1560356551724135E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4193243103448267E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8530281379310352E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-09A7-4C63-83F1-B23CF315B061}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="76117375"/>
+        <c:axId val="76121535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="76117375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="31"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76121535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="76121535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>E[Nq]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76117375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -10462,7 +14040,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10755,7 +14332,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10881,7 +14457,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10962,7 +14537,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11078,7 +14652,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12209,7 +15782,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12335,7 +15907,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12416,7 +15987,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12541,7 +16111,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13217,7 +16786,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13343,7 +16911,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13424,7 +16991,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13549,7 +17115,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13858,7 +17423,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13981,7 +17545,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14062,7 +17625,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14187,7 +17749,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14923,7 +18484,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15046,7 +18606,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15127,7 +18686,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15252,7 +18810,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15988,7 +19545,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16112,7 +19668,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16193,7 +19748,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18525,6 +22079,126 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -21465,6 +25139,1554 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -26564,6 +31786,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -39519,7 +44836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q693"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
@@ -52205,420 +57522,3669 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:N340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="I34" workbookViewId="0">
+      <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>652</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>972</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
       <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2.3916672999999999E-2</v>
+      </c>
+      <c r="E2">
+        <f>SUM(D2:D30)/F$2</f>
+        <v>2.2984031793103446E-2</v>
+      </c>
+      <c r="F2">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <f>CONFIDENCE(H$2,I2,F$2)</f>
+        <v>4.161068230782777E-4</v>
+      </c>
       <c r="H2">
-        <f>SUM(G2:G30)/I$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="I2">
+        <f>STDEV(D2:D30)</f>
+        <v>8.699349046780284E-4</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2">
+        <v>281.8213842997306</v>
+      </c>
+      <c r="M2">
+        <v>101.27044810913452</v>
+      </c>
+      <c r="N2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2.4256053999999999E-2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>204.8682110504476</v>
+      </c>
+      <c r="M3">
+        <v>74.23260132803658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2.3450697999999999E-2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>171.82637654482758</v>
+      </c>
+      <c r="M4">
+        <v>62.198682140226857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2.3225544000000001E-2</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>162.32924671724143</v>
+      </c>
+      <c r="M5">
+        <v>58.620525101298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2.3024263E-2</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>158.61934615482761</v>
+      </c>
+      <c r="M6">
+        <v>57.118633859803595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>2.4076110000000001E-2</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>157.65651318206895</v>
+      </c>
+      <c r="M7">
+        <v>56.814000207190482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>2.2538547999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>173.23190067931037</v>
+      </c>
+      <c r="M8">
+        <v>61.337136743737766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>2.3095135999999999E-2</v>
+      </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
+      <c r="L9">
+        <v>267.19184673448279</v>
+      </c>
+      <c r="M9">
+        <v>79.832409180873242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2.236846E-2</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>745.6190491103448</v>
+      </c>
+      <c r="M10">
+        <v>139.17156982126821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>2.1886959000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="L11">
+        <v>2359.6991886896549</v>
+      </c>
+      <c r="M11">
+        <v>396.7372279677445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>2.2902104999999999E-2</v>
+      </c>
+      <c r="K12">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <v>8946.4871296896563</v>
+      </c>
+      <c r="M12">
+        <v>2320.4168180904726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>2.4049852E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>2.2359838999999999E-2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>2.30332E-2</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <v>0.22467222748275859</v>
+      </c>
+      <c r="M15">
+        <v>8.9273216524195561E-3</v>
+      </c>
+      <c r="N15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>2.3265807999999999E-2</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>8.1064722931034464E-2</v>
+      </c>
+      <c r="M16">
+        <v>1.3949473685421297E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>2.1854458E-2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>5.4223584206896547E-2</v>
+      </c>
+      <c r="M17">
+        <v>8.2839686124086315E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>2.1142702999999999E-2</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>4.6543961413793099E-2</v>
+      </c>
+      <c r="M18">
+        <v>7.351166174564169E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>2.3357208000000001E-2</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>4.3162221448275855E-2</v>
+      </c>
+      <c r="M19">
+        <v>7.0056304721240507E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>2.3169347E-2</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>4.1110825689655177E-2</v>
+      </c>
+      <c r="M20">
+        <v>7.4476023718340499E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>2.2741971E-2</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>3.8681019413793087E-2</v>
+      </c>
+      <c r="M21">
+        <v>7.3906175705446865E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>2.5247314E-2</v>
+      </c>
+      <c r="K22">
+        <v>15</v>
+      </c>
+      <c r="L22">
+        <v>4.1178730275862059E-2</v>
+      </c>
+      <c r="M22">
+        <v>8.5479871809460541E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>2.1257623999999999E-2</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>4.6006203206896551E-2</v>
+      </c>
+      <c r="M23">
+        <v>1.0034872444556924E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>2.2850895999999999E-2</v>
+      </c>
+      <c r="K24">
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <v>5.3567597655172411E-2</v>
+      </c>
+      <c r="M24">
+        <v>1.5978395486952912E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>2.3301108000000001E-2</v>
+      </c>
+      <c r="K25">
+        <v>30</v>
+      </c>
+      <c r="L25">
+        <v>6.5802839793103446E-2</v>
+      </c>
+      <c r="M25">
+        <v>2.8543358592227615E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>2.222963E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>2.271654E-2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>2.2976646999999999E-2</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28">
+        <v>5.8816748034482752E-2</v>
+      </c>
+      <c r="M28">
+        <v>1.0197117485171347E-3</v>
+      </c>
+      <c r="N28">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>2.3006511E-2</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>2.6888112620689655E-2</v>
+      </c>
+      <c r="M29">
+        <v>3.8485180448092672E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>2.3235716E-2</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1.7192747862068966E-2</v>
+      </c>
+      <c r="M30">
+        <v>2.7141699112680315E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1.3917665103448275E-2</v>
+      </c>
+      <c r="M31">
+        <v>2.7456924708491514E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>972</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>1.2609867965517243E-2</v>
+      </c>
+      <c r="M32">
+        <v>2.2204000834257677E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="D33">
+        <v>1.0782368000000001E-2</v>
+      </c>
+      <c r="E33">
+        <f>SUM(D33:D61)/F$2</f>
+        <v>1.0468611206896553E-2</v>
+      </c>
+      <c r="F33">
         <v>29</v>
       </c>
-      <c r="J2" t="e">
-        <f>CONFIDENCE(K$2,L2,I$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2">
+      <c r="G33">
+        <f>CONFIDENCE(H$2,I33,F$2)</f>
+        <v>1.7763198776480848E-4</v>
+      </c>
+      <c r="H33">
         <v>0.01</v>
       </c>
-      <c r="L2" t="e">
-        <f>STDEV(G2:G30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2">
+      <c r="I33">
+        <f>STDEV(D33:D61)</f>
+        <v>3.7136681682068361E-4</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>1.1650575620689656E-2</v>
+      </c>
+      <c r="M33">
+        <v>2.6082190940555228E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1.0768101E-2</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <v>1.0294446344827587E-2</v>
+      </c>
+      <c r="M34">
+        <v>2.4160981861099989E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1.0789942E-2</v>
+      </c>
+      <c r="K35">
+        <v>15</v>
+      </c>
+      <c r="L35">
+        <v>1.0466269137931035E-2</v>
+      </c>
+      <c r="M35">
+        <v>2.7051770338967502E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1.0496165E-2</v>
+      </c>
+      <c r="K36">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>1.1259184275862071E-2</v>
+      </c>
+      <c r="M36">
+        <v>3.5069221956413532E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>1.0649193E-2</v>
+      </c>
+      <c r="K37">
+        <v>25</v>
+      </c>
+      <c r="L37">
+        <v>1.2672535413793106E-2</v>
+      </c>
+      <c r="M37">
+        <v>3.0726699907858055E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>1.085305E-2</v>
+      </c>
+      <c r="K38">
+        <v>30</v>
+      </c>
+      <c r="L38">
+        <v>1.4366141344827587E-2</v>
+      </c>
+      <c r="M38">
+        <v>4.9327409702579336E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>1.0403321E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>1.0547838E-2</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N40" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>9.979244E-3</v>
+      </c>
+      <c r="K41">
         <v>0.5</v>
       </c>
-      <c r="Q2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N3">
+      <c r="L41">
+        <v>3.3348953758620695E-2</v>
+      </c>
+      <c r="M41">
+        <v>5.4284218580809523E-4</v>
+      </c>
+      <c r="N41">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>1.0091062E-2</v>
+      </c>
+      <c r="K42">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N4">
+      <c r="L42">
+        <v>1.5257506137931033E-2</v>
+      </c>
+      <c r="M42">
+        <v>2.5631158709596885E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>1.0514182E-2</v>
+      </c>
+      <c r="K43">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N5">
+      <c r="L43">
+        <v>9.290282241379311E-3</v>
+      </c>
+      <c r="M43">
+        <v>2.0254879334001953E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>1.1191849E-2</v>
+      </c>
+      <c r="K44">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N6">
+      <c r="L44">
+        <v>7.335484379310345E-3</v>
+      </c>
+      <c r="M44">
+        <v>1.8827977597206318E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>1.0208493000000001E-2</v>
+      </c>
+      <c r="K45">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N7">
+      <c r="L45">
+        <v>6.4652703103448275E-3</v>
+      </c>
+      <c r="M45">
+        <v>1.509964669795349E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>1.0681859E-2</v>
+      </c>
+      <c r="K46">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N8">
+      <c r="L46">
+        <v>5.9084253448275868E-3</v>
+      </c>
+      <c r="M46">
+        <v>1.4873777835121442E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>1.0537602E-2</v>
+      </c>
+      <c r="K47">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N9">
+      <c r="L47">
+        <v>4.9911212896317702E-3</v>
+      </c>
+      <c r="M47">
+        <v>1.1625158617253096E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C48">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N10">
+      <c r="D48">
+        <v>9.9879459999999993E-3</v>
+      </c>
+      <c r="K48">
+        <v>15</v>
+      </c>
+      <c r="L48">
+        <v>4.9539212758620676E-3</v>
+      </c>
+      <c r="M48">
+        <v>1.3064261255831653E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>1.0096419000000001E-2</v>
+      </c>
+      <c r="K49">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N11">
+      <c r="L49">
+        <v>5.2786706551724129E-3</v>
+      </c>
+      <c r="M49">
+        <v>1.4731990360072241E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>1.0527188999999999E-2</v>
+      </c>
+      <c r="K50">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N12">
+      <c r="L50">
+        <v>5.770133310344829E-3</v>
+      </c>
+      <c r="M50">
+        <v>1.5364122768506556E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>1.0397669999999999E-2</v>
+      </c>
+      <c r="K51">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N14" t="s">
+      <c r="L51">
+        <v>6.5041435517241382E-3</v>
+      </c>
+      <c r="M51">
+        <v>2.0110517206103416E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <v>1.0507437999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>1.1411818000000001E-2</v>
+      </c>
+      <c r="K53" t="s">
         <v>1</v>
       </c>
-      <c r="O14" t="s">
+      <c r="L53" t="s">
         <v>9</v>
       </c>
-      <c r="P14" t="s">
+      <c r="M53" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="N53" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N15">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>21</v>
+      </c>
+      <c r="D54">
+        <v>9.6547769999999998E-3</v>
+      </c>
+      <c r="K54">
         <v>0.5</v>
       </c>
-      <c r="Q15">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N16">
+      <c r="L54">
+        <v>2.2984031793103446E-2</v>
+      </c>
+      <c r="M54">
+        <v>4.161068230782777E-4</v>
+      </c>
+      <c r="N54">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>22</v>
+      </c>
+      <c r="D55">
+        <v>1.0219097E-2</v>
+      </c>
+      <c r="K55">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N17">
+      <c r="L55">
+        <v>1.0468611206896553E-2</v>
+      </c>
+      <c r="M55">
+        <v>1.7763198776480848E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>23</v>
+      </c>
+      <c r="D56">
+        <v>1.0513974000000001E-2</v>
+      </c>
+      <c r="K56">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N18">
+      <c r="L56">
+        <v>6.1614895862068973E-3</v>
+      </c>
+      <c r="M56">
+        <v>1.3585646878839293E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>1.00506E-2</v>
+      </c>
+      <c r="K57">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N19">
+      <c r="L57">
+        <v>4.7471125517241372E-3</v>
+      </c>
+      <c r="M57">
+        <v>1.2154397168225438E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>25</v>
+      </c>
+      <c r="D58">
+        <v>1.0147351000000001E-2</v>
+      </c>
+      <c r="K58">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N20">
+      <c r="L58">
+        <v>4.0793589310344821E-3</v>
+      </c>
+      <c r="M58">
+        <v>1.1810561361870872E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>26</v>
+      </c>
+      <c r="D59">
+        <v>1.0602935000000001E-2</v>
+      </c>
+      <c r="K59">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N21">
+      <c r="L59">
+        <v>3.7367238275862065E-3</v>
+      </c>
+      <c r="M59">
+        <v>1.2459466642550154E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>27</v>
+      </c>
+      <c r="D60">
+        <v>1.0314812E-2</v>
+      </c>
+      <c r="K60">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N22">
+      <c r="L60">
+        <v>3.0346357586206896E-3</v>
+      </c>
+      <c r="M60">
+        <v>1.1762702581926528E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>28</v>
+      </c>
+      <c r="D61">
+        <v>1.066343E-2</v>
+      </c>
+      <c r="K61">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N23">
+      <c r="L61">
+        <v>2.9481621379310349E-3</v>
+      </c>
+      <c r="M61">
+        <v>1.2554261015831564E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K62">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N24">
+      <c r="L62">
+        <v>3.1560356551724135E-3</v>
+      </c>
+      <c r="M62">
+        <v>1.1699279901088458E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>972</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N25">
+      <c r="L63">
+        <v>3.4193243103448267E-3</v>
+      </c>
+      <c r="M63">
+        <v>1.7844675807013183E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>5.9786489999999999E-3</v>
+      </c>
+      <c r="E64">
+        <f>SUM(D64:D92)/F$2</f>
+        <v>6.1614895862068973E-3</v>
+      </c>
+      <c r="F64">
+        <v>29</v>
+      </c>
+      <c r="G64">
+        <f>CONFIDENCE(H$2,I64,F$2)</f>
+        <v>1.3585646878839293E-4</v>
+      </c>
+      <c r="H64">
+        <v>0.01</v>
+      </c>
+      <c r="I64">
+        <f>STDEV(D64:D92)</f>
+        <v>2.8402871010622921E-4</v>
+      </c>
+      <c r="K64">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N27" t="s">
+      <c r="L64">
+        <v>3.8530281379310352E-3</v>
+      </c>
+      <c r="M64">
+        <v>1.9733463512076638E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C65">
         <v>1</v>
       </c>
-      <c r="O27" t="s">
+      <c r="D65">
+        <v>6.4992269999999998E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>6.4345069999999999E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>6.1756349999999996E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>6.5040810000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>6.0538550000000003E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>5.9870909999999999E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>6.0686280000000004E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>5.9112460000000002E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C73">
         <v>9</v>
       </c>
-      <c r="P27" t="s">
+      <c r="D73">
+        <v>5.8654900000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>6.2237309999999997E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C75">
         <v>11</v>
       </c>
-      <c r="Q27" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="28" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N28">
-        <v>0.5</v>
-      </c>
-      <c r="Q28">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N29">
+      <c r="D75">
+        <v>6.8826770000000002E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>5.8790179999999997E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>13</v>
+      </c>
+      <c r="D77">
+        <v>6.3428470000000004E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>14</v>
+      </c>
+      <c r="D78">
+        <v>6.146065E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>15</v>
+      </c>
+      <c r="D79">
+        <v>5.9962990000000001E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>16</v>
+      </c>
+      <c r="D80">
+        <v>5.7362139999999999E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>17</v>
+      </c>
+      <c r="D81">
+        <v>6.0309320000000001E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>18</v>
+      </c>
+      <c r="D82">
+        <v>6.2239840000000001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>19</v>
+      </c>
+      <c r="D83">
+        <v>6.3928190000000001E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>20</v>
+      </c>
+      <c r="D84">
+        <v>6.6714010000000004E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>21</v>
+      </c>
+      <c r="D85">
+        <v>5.7506450000000004E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>22</v>
+      </c>
+      <c r="D86">
+        <v>5.8964530000000003E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>23</v>
+      </c>
+      <c r="D87">
+        <v>6.370868E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>24</v>
+      </c>
+      <c r="D88">
+        <v>5.7782729999999996E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>25</v>
+      </c>
+      <c r="D89">
+        <v>6.0129270000000004E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>26</v>
+      </c>
+      <c r="D90">
+        <v>6.2529999999999999E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>27</v>
+      </c>
+      <c r="D91">
+        <v>6.1750140000000004E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>28</v>
+      </c>
+      <c r="D92">
+        <v>6.4416220000000001E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N30">
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>972</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>4.6466340000000002E-3</v>
+      </c>
+      <c r="E95">
+        <f>SUM(D95:D123)/F$2</f>
+        <v>4.7471125517241372E-3</v>
+      </c>
+      <c r="F95">
+        <v>29</v>
+      </c>
+      <c r="G95">
+        <f>CONFIDENCE(H$2,I95,F$2)</f>
+        <v>1.2154397168225438E-4</v>
+      </c>
+      <c r="H95">
+        <v>0.01</v>
+      </c>
+      <c r="I95">
+        <f>STDEV(D95:D123)</f>
+        <v>2.5410624761541123E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>4.9045959999999998E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C97">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N31">
+      <c r="D97">
+        <v>5.1763809999999999E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C98">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N32">
+      <c r="D98">
+        <v>4.7842199999999996E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C99">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N33">
+      <c r="D99">
+        <v>5.0155149999999999E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C100">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N34">
+      <c r="D100">
+        <v>4.4403150000000002E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>4.6855100000000004E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>4.5724930000000004E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>4.5903250000000001E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <v>4.5123760000000002E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C105">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N35">
+      <c r="D105">
+        <v>4.8514839999999997E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>11</v>
+      </c>
+      <c r="D106">
+        <v>4.9810360000000003E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>12</v>
+      </c>
+      <c r="D107">
+        <v>4.5749160000000001E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>13</v>
+      </c>
+      <c r="D108">
+        <v>4.7119370000000002E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>14</v>
+      </c>
+      <c r="D109">
+        <v>4.7728079999999999E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C110">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N36">
+      <c r="D110">
+        <v>4.34352E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>16</v>
+      </c>
+      <c r="D111">
+        <v>4.5614160000000004E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>17</v>
+      </c>
+      <c r="D112">
+        <v>4.8384259999999998E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>18</v>
+      </c>
+      <c r="D113">
+        <v>4.8823779999999997E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>19</v>
+      </c>
+      <c r="D114">
+        <v>4.9168099999999998E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C115">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N37">
+      <c r="D115">
+        <v>5.3875449999999997E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>21</v>
+      </c>
+      <c r="D116">
+        <v>4.259662E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>22</v>
+      </c>
+      <c r="D117">
+        <v>4.5349930000000002E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>23</v>
+      </c>
+      <c r="D118">
+        <v>5.0623049999999996E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>24</v>
+      </c>
+      <c r="D119">
+        <v>4.5488619999999999E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C120">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N38">
+      <c r="D120">
+        <v>4.523918E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>26</v>
+      </c>
+      <c r="D121">
+        <v>4.7977899999999997E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>27</v>
+      </c>
+      <c r="D122">
+        <v>4.77087E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>28</v>
+      </c>
+      <c r="D123">
+        <v>5.0172230000000003E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>972</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>3.7468060000000001E-3</v>
+      </c>
+      <c r="E126">
+        <f>SUM(D126:D154)/F$2</f>
+        <v>4.0793589310344821E-3</v>
+      </c>
+      <c r="F126">
+        <v>29</v>
+      </c>
+      <c r="G126">
+        <f>CONFIDENCE(H$2,I126,F$2)</f>
+        <v>1.1810561361870872E-4</v>
+      </c>
+      <c r="H126">
+        <v>0.01</v>
+      </c>
+      <c r="I126">
+        <f>STDEV(D126:D154)</f>
+        <v>2.4691783462056632E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>4.2446970000000004E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>4.2646639999999996E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>4.292461E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>4.4439240000000001E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>3.9710370000000002E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>6</v>
+      </c>
+      <c r="D132">
+        <v>3.8750479999999999E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>7</v>
+      </c>
+      <c r="D133">
+        <v>4.0394330000000003E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>8</v>
+      </c>
+      <c r="D134">
+        <v>3.8493870000000001E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>9</v>
+      </c>
+      <c r="D135">
+        <v>3.9218880000000001E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>4.2638909999999997E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>11</v>
+      </c>
+      <c r="D137">
+        <v>4.4427920000000001E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>12</v>
+      </c>
+      <c r="D138">
+        <v>3.903119E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>13</v>
+      </c>
+      <c r="D139">
+        <v>4.2412789999999997E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>14</v>
+      </c>
+      <c r="D140">
+        <v>4.2758079999999999E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>15</v>
+      </c>
+      <c r="D141">
+        <v>3.9957029999999998E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>16</v>
+      </c>
+      <c r="D142">
+        <v>3.7159269999999999E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>17</v>
+      </c>
+      <c r="D143">
+        <v>4.0709930000000002E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>18</v>
+      </c>
+      <c r="D144">
+        <v>4.1576440000000003E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>19</v>
+      </c>
+      <c r="D145">
+        <v>4.3738379999999997E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>20</v>
+      </c>
+      <c r="D146">
+        <v>4.5737039999999996E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>21</v>
+      </c>
+      <c r="D147">
+        <v>3.754678E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>22</v>
+      </c>
+      <c r="D148">
+        <v>3.8657890000000001E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>23</v>
+      </c>
+      <c r="D149">
+        <v>4.1306320000000004E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>24</v>
+      </c>
+      <c r="D150">
+        <v>3.6079660000000002E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>25</v>
+      </c>
+      <c r="D151">
+        <v>3.8105299999999999E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>26</v>
+      </c>
+      <c r="D152">
+        <v>4.1652540000000002E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>27</v>
+      </c>
+      <c r="D153">
+        <v>4.052422E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>28</v>
+      </c>
+      <c r="D154">
+        <v>4.2500949999999997E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" t="s">
+        <v>972</v>
+      </c>
+      <c r="E156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" t="s">
+        <v>11</v>
+      </c>
+      <c r="H156" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>3.6808909999999999E-3</v>
+      </c>
+      <c r="E157">
+        <f>SUM(D157:D185)/F$2</f>
+        <v>3.7367238275862065E-3</v>
+      </c>
+      <c r="F157">
+        <v>29</v>
+      </c>
+      <c r="G157">
+        <f>CONFIDENCE(H$2,I157,F$2)</f>
+        <v>1.2459466642550154E-4</v>
+      </c>
+      <c r="H157">
+        <v>0.01</v>
+      </c>
+      <c r="I157">
+        <f>STDEV(D157:D185)</f>
+        <v>2.604841911949839E-4</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>3.921735E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>3.9614519999999999E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>4.0162069999999999E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>4.0400219999999999E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>5</v>
+      </c>
+      <c r="D162">
+        <v>3.631001E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>6</v>
+      </c>
+      <c r="D163">
+        <v>3.711125E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C164">
+        <v>7</v>
+      </c>
+      <c r="D164">
+        <v>3.3831809999999999E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>8</v>
+      </c>
+      <c r="D165">
+        <v>3.3983350000000002E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <v>9</v>
+      </c>
+      <c r="D166">
+        <v>3.5445120000000001E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>3.5410120000000001E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C168">
+        <v>11</v>
+      </c>
+      <c r="D168">
+        <v>4.3166799999999998E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C169">
+        <v>12</v>
+      </c>
+      <c r="D169">
+        <v>3.7808640000000001E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C170">
+        <v>13</v>
+      </c>
+      <c r="D170">
+        <v>3.8052300000000002E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>14</v>
+      </c>
+      <c r="D171">
+        <v>3.834877E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C172">
+        <v>15</v>
+      </c>
+      <c r="D172">
+        <v>3.4014879999999998E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C173">
+        <v>16</v>
+      </c>
+      <c r="D173">
+        <v>3.4826990000000001E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C174">
+        <v>17</v>
+      </c>
+      <c r="D174">
+        <v>3.8119650000000001E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>18</v>
+      </c>
+      <c r="D175">
+        <v>3.828199E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>19</v>
+      </c>
+      <c r="D176">
+        <v>3.7739230000000002E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C177">
+        <v>20</v>
+      </c>
+      <c r="D177">
+        <v>4.3687300000000004E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>21</v>
+      </c>
+      <c r="D178">
+        <v>3.5169720000000002E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C179">
+        <v>22</v>
+      </c>
+      <c r="D179">
+        <v>3.5145139999999998E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C180">
+        <v>23</v>
+      </c>
+      <c r="D180">
+        <v>3.786916E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C181">
+        <v>24</v>
+      </c>
+      <c r="D181">
+        <v>3.6041519999999998E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C182">
+        <v>25</v>
+      </c>
+      <c r="D182">
+        <v>3.3538410000000002E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C183">
+        <v>26</v>
+      </c>
+      <c r="D183">
+        <v>3.7399040000000001E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C184">
+        <v>27</v>
+      </c>
+      <c r="D184">
+        <v>3.5874909999999999E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C185">
+        <v>28</v>
+      </c>
+      <c r="D185">
+        <v>4.0270729999999999E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187" t="s">
+        <v>972</v>
+      </c>
+      <c r="E187" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" t="s">
+        <v>11</v>
+      </c>
+      <c r="H187" t="s">
+        <v>12</v>
+      </c>
+      <c r="I187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>10</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>2.8126459999999998E-3</v>
+      </c>
+      <c r="E188">
+        <f>SUM(D188:D216)/F$2</f>
+        <v>3.0346357586206896E-3</v>
+      </c>
+      <c r="F188">
+        <v>29</v>
+      </c>
+      <c r="G188">
+        <f>CONFIDENCE(H$2,I188,F$2)</f>
+        <v>1.1762702581926528E-4</v>
+      </c>
+      <c r="H188">
+        <v>0.01</v>
+      </c>
+      <c r="I188">
+        <f>STDEV(D188:D216)</f>
+        <v>2.4591727368621563E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>3.266475E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C190">
+        <v>2</v>
+      </c>
+      <c r="D190">
+        <v>3.3871909999999999E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191">
+        <v>3.3161979999999998E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C192">
+        <v>4</v>
+      </c>
+      <c r="D192">
+        <v>3.2493019999999999E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C193">
+        <v>5</v>
+      </c>
+      <c r="D193">
+        <v>2.911748E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C194">
+        <v>6</v>
+      </c>
+      <c r="D194">
+        <v>3.0037319999999998E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C195">
+        <v>7</v>
+      </c>
+      <c r="D195">
+        <v>2.825302E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C196">
+        <v>8</v>
+      </c>
+      <c r="D196">
+        <v>2.7179629999999999E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C197">
+        <v>9</v>
+      </c>
+      <c r="D197">
+        <v>2.8932659999999998E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C198">
+        <v>10</v>
+      </c>
+      <c r="D198">
+        <v>2.9105960000000001E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C199">
+        <v>11</v>
+      </c>
+      <c r="D199">
+        <v>3.560615E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C200">
+        <v>12</v>
+      </c>
+      <c r="D200">
+        <v>2.9398229999999998E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C201">
+        <v>13</v>
+      </c>
+      <c r="D201">
+        <v>3.0346840000000002E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C202">
+        <v>14</v>
+      </c>
+      <c r="D202">
+        <v>3.1023019999999999E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C203">
+        <v>15</v>
+      </c>
+      <c r="D203">
+        <v>2.7776160000000001E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C204">
+        <v>16</v>
+      </c>
+      <c r="D204">
+        <v>2.664661E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C205">
+        <v>17</v>
+      </c>
+      <c r="D205">
+        <v>3.029702E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C206">
+        <v>18</v>
+      </c>
+      <c r="D206">
+        <v>3.147099E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C207">
+        <v>19</v>
+      </c>
+      <c r="D207">
+        <v>2.9597339999999999E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C208">
+        <v>20</v>
+      </c>
+      <c r="D208">
+        <v>3.5148380000000002E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C209">
+        <v>21</v>
+      </c>
+      <c r="D209">
+        <v>2.8992369999999998E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C210">
+        <v>22</v>
+      </c>
+      <c r="D210">
+        <v>2.7849509999999999E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C211">
+        <v>23</v>
+      </c>
+      <c r="D211">
+        <v>3.191082E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C212">
+        <v>24</v>
+      </c>
+      <c r="D212">
+        <v>2.7260790000000002E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C213">
+        <v>25</v>
+      </c>
+      <c r="D213">
+        <v>2.7872909999999999E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C214">
+        <v>26</v>
+      </c>
+      <c r="D214">
+        <v>3.1658200000000002E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C215">
+        <v>27</v>
+      </c>
+      <c r="D215">
+        <v>3.037283E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C216">
+        <v>28</v>
+      </c>
+      <c r="D216">
+        <v>3.3872009999999998E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" t="s">
+        <v>972</v>
+      </c>
+      <c r="E218" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" t="s">
+        <v>11</v>
+      </c>
+      <c r="H218" t="s">
+        <v>12</v>
+      </c>
+      <c r="I218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>15</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>2.6553509999999998E-3</v>
+      </c>
+      <c r="E219">
+        <f>SUM(D219:D247)/F$2</f>
+        <v>2.9481621379310349E-3</v>
+      </c>
+      <c r="F219">
+        <v>29</v>
+      </c>
+      <c r="G219">
+        <f>CONFIDENCE(H$2,I219,F$2)</f>
+        <v>1.2554261015831564E-4</v>
+      </c>
+      <c r="H219">
+        <v>0.01</v>
+      </c>
+      <c r="I219">
+        <f>STDEV(D219:D247)</f>
+        <v>2.6246601243681112E-4</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>3.1382139999999998E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>3.1496219999999999E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>2.9288080000000002E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C223">
+        <v>4</v>
+      </c>
+      <c r="D223">
+        <v>3.1357239999999999E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C224">
+        <v>5</v>
+      </c>
+      <c r="D224">
+        <v>2.8273759999999999E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C225">
+        <v>6</v>
+      </c>
+      <c r="D225">
+        <v>2.7324160000000001E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C226">
+        <v>7</v>
+      </c>
+      <c r="D226">
+        <v>2.7238079999999999E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C227">
+        <v>8</v>
+      </c>
+      <c r="D227">
+        <v>2.832832E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C228">
+        <v>9</v>
+      </c>
+      <c r="D228">
+        <v>2.637529E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C229">
+        <v>10</v>
+      </c>
+      <c r="D229">
+        <v>2.8765219999999998E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C230">
+        <v>11</v>
+      </c>
+      <c r="D230">
+        <v>3.441955E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C231">
+        <v>12</v>
+      </c>
+      <c r="D231">
+        <v>2.9064189999999999E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C232">
+        <v>13</v>
+      </c>
+      <c r="D232">
+        <v>2.9768770000000002E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C233">
+        <v>14</v>
+      </c>
+      <c r="D233">
+        <v>2.9705769999999999E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C234">
+        <v>15</v>
+      </c>
+      <c r="D234">
+        <v>2.5926209999999998E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C235">
+        <v>16</v>
+      </c>
+      <c r="D235">
+        <v>2.5990449999999999E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C236">
+        <v>17</v>
+      </c>
+      <c r="D236">
+        <v>3.0205929999999998E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C237">
+        <v>18</v>
+      </c>
+      <c r="D237">
+        <v>3.3427349999999999E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C238">
+        <v>19</v>
+      </c>
+      <c r="D238">
+        <v>3.0083950000000001E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C239">
+        <v>20</v>
+      </c>
+      <c r="D239">
+        <v>3.5859899999999998E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C240">
+        <v>21</v>
+      </c>
+      <c r="D240">
+        <v>2.8432840000000002E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C241">
+        <v>22</v>
+      </c>
+      <c r="D241">
+        <v>2.7471800000000001E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C242">
+        <v>23</v>
+      </c>
+      <c r="D242">
+        <v>3.0838559999999998E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C243">
+        <v>24</v>
+      </c>
+      <c r="D243">
+        <v>2.6951549999999999E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C244">
+        <v>25</v>
+      </c>
+      <c r="D244">
+        <v>2.7526880000000001E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C245">
+        <v>26</v>
+      </c>
+      <c r="D245">
+        <v>2.9103340000000001E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C246">
+        <v>27</v>
+      </c>
+      <c r="D246">
+        <v>2.9192110000000001E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C247">
+        <v>28</v>
+      </c>
+      <c r="D247">
+        <v>3.4615850000000001E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>3</v>
+      </c>
+      <c r="D249" t="s">
+        <v>972</v>
+      </c>
+      <c r="E249" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" t="s">
+        <v>11</v>
+      </c>
+      <c r="H249" t="s">
+        <v>12</v>
+      </c>
+      <c r="I249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>20</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>3.0474270000000001E-3</v>
+      </c>
+      <c r="E250">
+        <f>SUM(D250:D278)/F$2</f>
+        <v>3.1560356551724135E-3</v>
+      </c>
+      <c r="F250">
+        <v>29</v>
+      </c>
+      <c r="G250">
+        <f>CONFIDENCE(H$2,I250,F$2)</f>
+        <v>1.1699279901088458E-4</v>
+      </c>
+      <c r="H250">
+        <v>0.01</v>
+      </c>
+      <c r="I250">
+        <f>STDEV(D250:D278)</f>
+        <v>2.4459132561833422E-4</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>3.400424E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C252">
+        <v>2</v>
+      </c>
+      <c r="D252">
+        <v>3.4327559999999999E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C253">
+        <v>3</v>
+      </c>
+      <c r="D253">
+        <v>3.170324E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C254">
+        <v>4</v>
+      </c>
+      <c r="D254">
+        <v>3.275385E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C255">
+        <v>5</v>
+      </c>
+      <c r="D255">
+        <v>2.8054489999999998E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C256">
+        <v>6</v>
+      </c>
+      <c r="D256">
+        <v>3.1022620000000002E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C257">
+        <v>7</v>
+      </c>
+      <c r="D257">
+        <v>2.927818E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C258">
+        <v>8</v>
+      </c>
+      <c r="D258">
+        <v>2.913082E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C259">
+        <v>9</v>
+      </c>
+      <c r="D259">
+        <v>2.9627719999999998E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C260">
+        <v>10</v>
+      </c>
+      <c r="D260">
+        <v>3.2136220000000002E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C261">
+        <v>11</v>
+      </c>
+      <c r="D261">
+        <v>3.587968E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C262">
+        <v>12</v>
+      </c>
+      <c r="D262">
+        <v>3.117351E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C263">
+        <v>13</v>
+      </c>
+      <c r="D263">
+        <v>3.1994879999999999E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C264">
+        <v>14</v>
+      </c>
+      <c r="D264">
+        <v>3.409217E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C265">
+        <v>15</v>
+      </c>
+      <c r="D265">
+        <v>3.352037E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C266">
+        <v>16</v>
+      </c>
+      <c r="D266">
+        <v>2.7975309999999998E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C267">
+        <v>17</v>
+      </c>
+      <c r="D267">
+        <v>3.22851E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C268">
+        <v>18</v>
+      </c>
+      <c r="D268">
+        <v>3.1745100000000002E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C269">
+        <v>19</v>
+      </c>
+      <c r="D269">
+        <v>3.4025869999999999E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C270">
+        <v>20</v>
+      </c>
+      <c r="D270">
+        <v>3.7508369999999999E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C271">
+        <v>21</v>
+      </c>
+      <c r="D271">
+        <v>3.1018270000000001E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C272">
+        <v>22</v>
+      </c>
+      <c r="D272">
+        <v>2.757912E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C273">
+        <v>23</v>
+      </c>
+      <c r="D273">
+        <v>3.300982E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C274">
+        <v>24</v>
+      </c>
+      <c r="D274">
+        <v>2.885632E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C275">
+        <v>25</v>
+      </c>
+      <c r="D275">
+        <v>2.8412989999999998E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C276">
+        <v>26</v>
+      </c>
+      <c r="D276">
+        <v>2.967875E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C277">
+        <v>27</v>
+      </c>
+      <c r="D277">
+        <v>3.2051620000000001E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C278">
+        <v>28</v>
+      </c>
+      <c r="D278">
+        <v>3.1929879999999999E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" t="s">
+        <v>3</v>
+      </c>
+      <c r="D280" t="s">
+        <v>972</v>
+      </c>
+      <c r="E280" t="s">
+        <v>9</v>
+      </c>
+      <c r="F280" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" t="s">
+        <v>11</v>
+      </c>
+      <c r="H280" t="s">
+        <v>12</v>
+      </c>
+      <c r="I280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>25</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>3.2176180000000002E-3</v>
+      </c>
+      <c r="E281">
+        <f>SUM(D281:D309)/F$2</f>
+        <v>3.4193243103448267E-3</v>
+      </c>
+      <c r="F281">
+        <v>29</v>
+      </c>
+      <c r="G281">
+        <f>CONFIDENCE(H$2,I281,F$2)</f>
+        <v>1.7844675807013183E-4</v>
+      </c>
+      <c r="H281">
+        <v>0.01</v>
+      </c>
+      <c r="I281">
+        <f>STDEV(D281:D309)</f>
+        <v>3.7307021866026999E-4</v>
+      </c>
+    </row>
+    <row r="282" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>3.4227350000000001E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C283">
+        <v>2</v>
+      </c>
+      <c r="D283">
+        <v>3.6473479999999999E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C284">
+        <v>3</v>
+      </c>
+      <c r="D284">
+        <v>3.4785929999999999E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C285">
+        <v>4</v>
+      </c>
+      <c r="D285">
+        <v>3.4298610000000002E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C286">
+        <v>5</v>
+      </c>
+      <c r="D286">
+        <v>2.9761919999999999E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C287">
+        <v>6</v>
+      </c>
+      <c r="D287">
+        <v>3.3576790000000001E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C288">
+        <v>7</v>
+      </c>
+      <c r="D288">
+        <v>3.0038349999999998E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C289">
+        <v>8</v>
+      </c>
+      <c r="D289">
+        <v>3.376249E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C290">
+        <v>9</v>
+      </c>
+      <c r="D290">
+        <v>3.166131E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C291">
+        <v>10</v>
+      </c>
+      <c r="D291">
+        <v>3.6878900000000001E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C292">
+        <v>11</v>
+      </c>
+      <c r="D292">
+        <v>4.3748779999999996E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C293">
+        <v>12</v>
+      </c>
+      <c r="D293">
+        <v>3.4607819999999999E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C294">
+        <v>13</v>
+      </c>
+      <c r="D294">
+        <v>3.4045780000000001E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C295">
+        <v>14</v>
+      </c>
+      <c r="D295">
+        <v>3.8620960000000002E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C296">
+        <v>15</v>
+      </c>
+      <c r="D296">
+        <v>2.9850079999999999E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C297">
+        <v>16</v>
+      </c>
+      <c r="D297">
+        <v>3.129134E-3</v>
+      </c>
+    </row>
+    <row r="298" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C298">
+        <v>17</v>
+      </c>
+      <c r="D298">
+        <v>3.5207070000000001E-3</v>
+      </c>
+    </row>
+    <row r="299" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C299">
+        <v>18</v>
+      </c>
+      <c r="D299">
+        <v>3.7622599999999999E-3</v>
+      </c>
+    </row>
+    <row r="300" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C300">
+        <v>19</v>
+      </c>
+      <c r="D300">
+        <v>3.325635E-3</v>
+      </c>
+    </row>
+    <row r="301" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C301">
+        <v>20</v>
+      </c>
+      <c r="D301">
+        <v>4.3784280000000002E-3</v>
+      </c>
+    </row>
+    <row r="302" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C302">
+        <v>21</v>
+      </c>
+      <c r="D302">
+        <v>3.2021200000000001E-3</v>
+      </c>
+    </row>
+    <row r="303" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C303">
+        <v>22</v>
+      </c>
+      <c r="D303">
+        <v>2.9516849999999999E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C304">
+        <v>23</v>
+      </c>
+      <c r="D304">
+        <v>3.671686E-3</v>
+      </c>
+    </row>
+    <row r="305" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C305">
+        <v>24</v>
+      </c>
+      <c r="D305">
+        <v>3.0306500000000002E-3</v>
+      </c>
+    </row>
+    <row r="306" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C306">
+        <v>25</v>
+      </c>
+      <c r="D306">
+        <v>2.9600450000000001E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C307">
+        <v>26</v>
+      </c>
+      <c r="D307">
+        <v>3.332317E-3</v>
+      </c>
+    </row>
+    <row r="308" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C308">
+        <v>27</v>
+      </c>
+      <c r="D308">
+        <v>3.2680040000000001E-3</v>
+      </c>
+    </row>
+    <row r="309" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C309">
+        <v>28</v>
+      </c>
+      <c r="D309">
+        <v>3.7762609999999999E-3</v>
+      </c>
+    </row>
+    <row r="311" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B311" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" t="s">
+        <v>3</v>
+      </c>
+      <c r="D311" t="s">
+        <v>972</v>
+      </c>
+      <c r="E311" t="s">
+        <v>9</v>
+      </c>
+      <c r="F311" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" t="s">
+        <v>11</v>
+      </c>
+      <c r="H311" t="s">
+        <v>12</v>
+      </c>
+      <c r="I311" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="312" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B312">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N40" t="s">
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>3.0740059999999998E-3</v>
+      </c>
+      <c r="E312">
+        <f>SUM(D312:D340)/F$2</f>
+        <v>3.8530281379310352E-3</v>
+      </c>
+      <c r="F312">
+        <v>29</v>
+      </c>
+      <c r="G312">
+        <f>CONFIDENCE(H$2,I312,F$2)</f>
+        <v>1.9733463512076638E-4</v>
+      </c>
+      <c r="H312">
+        <v>0.01</v>
+      </c>
+      <c r="I312">
+        <f>STDEV(D312:D340)</f>
+        <v>4.1255821215208311E-4</v>
+      </c>
+    </row>
+    <row r="313" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C313">
         <v>1</v>
       </c>
-      <c r="O40" t="s">
+      <c r="D313">
+        <v>3.9519730000000001E-3</v>
+      </c>
+    </row>
+    <row r="314" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C314">
+        <v>2</v>
+      </c>
+      <c r="D314">
+        <v>3.6887030000000002E-3</v>
+      </c>
+    </row>
+    <row r="315" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C315">
+        <v>3</v>
+      </c>
+      <c r="D315">
+        <v>4.3889920000000004E-3</v>
+      </c>
+    </row>
+    <row r="316" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C316">
+        <v>4</v>
+      </c>
+      <c r="D316">
+        <v>3.9201749999999997E-3</v>
+      </c>
+    </row>
+    <row r="317" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C317">
+        <v>5</v>
+      </c>
+      <c r="D317">
+        <v>3.5904069999999999E-3</v>
+      </c>
+    </row>
+    <row r="318" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C318">
+        <v>6</v>
+      </c>
+      <c r="D318">
+        <v>3.8159729999999998E-3</v>
+      </c>
+    </row>
+    <row r="319" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C319">
+        <v>7</v>
+      </c>
+      <c r="D319">
+        <v>3.4664560000000001E-3</v>
+      </c>
+    </row>
+    <row r="320" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C320">
+        <v>8</v>
+      </c>
+      <c r="D320">
+        <v>3.3519140000000001E-3</v>
+      </c>
+    </row>
+    <row r="321" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C321">
         <v>9</v>
       </c>
-      <c r="P40" t="s">
+      <c r="D321">
+        <v>3.3541629999999998E-3</v>
+      </c>
+    </row>
+    <row r="322" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C322">
+        <v>10</v>
+      </c>
+      <c r="D322">
+        <v>3.8585220000000001E-3</v>
+      </c>
+    </row>
+    <row r="323" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C323">
         <v>11</v>
       </c>
-      <c r="Q40" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="41" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N41">
-        <v>0.5</v>
-      </c>
-      <c r="Q41">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="42" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N48">
+      <c r="D323">
+        <v>4.4006410000000003E-3</v>
+      </c>
+    </row>
+    <row r="324" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C324">
+        <v>12</v>
+      </c>
+      <c r="D324">
+        <v>3.7251929999999999E-3</v>
+      </c>
+    </row>
+    <row r="325" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C325">
+        <v>13</v>
+      </c>
+      <c r="D325">
+        <v>4.0409260000000002E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C326">
+        <v>14</v>
+      </c>
+      <c r="D326">
+        <v>3.920967E-3</v>
+      </c>
+    </row>
+    <row r="327" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C327">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N49">
+      <c r="D327">
+        <v>3.8838029999999999E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C328">
+        <v>16</v>
+      </c>
+      <c r="D328">
+        <v>3.5356860000000001E-3</v>
+      </c>
+    </row>
+    <row r="329" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C329">
+        <v>17</v>
+      </c>
+      <c r="D329">
+        <v>3.8113690000000002E-3</v>
+      </c>
+    </row>
+    <row r="330" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C330">
+        <v>18</v>
+      </c>
+      <c r="D330">
+        <v>3.887312E-3</v>
+      </c>
+    </row>
+    <row r="331" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C331">
+        <v>19</v>
+      </c>
+      <c r="D331">
+        <v>3.9039669999999999E-3</v>
+      </c>
+    </row>
+    <row r="332" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C332">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N50">
+      <c r="D332">
+        <v>5.1453369999999998E-3</v>
+      </c>
+    </row>
+    <row r="333" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C333">
+        <v>21</v>
+      </c>
+      <c r="D333">
+        <v>3.689501E-3</v>
+      </c>
+    </row>
+    <row r="334" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C334">
+        <v>22</v>
+      </c>
+      <c r="D334">
+        <v>3.4561850000000001E-3</v>
+      </c>
+    </row>
+    <row r="335" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C335">
+        <v>23</v>
+      </c>
+      <c r="D335">
+        <v>4.0849739999999999E-3</v>
+      </c>
+    </row>
+    <row r="336" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C336">
+        <v>24</v>
+      </c>
+      <c r="D336">
+        <v>3.8818500000000001E-3</v>
+      </c>
+    </row>
+    <row r="337" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C337">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N51">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N53" t="s">
-        <v>1</v>
-      </c>
-      <c r="O53" t="s">
-        <v>9</v>
-      </c>
-      <c r="P53" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="54" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N54">
-        <v>0.5</v>
-      </c>
-      <c r="Q54">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="55" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N61">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N63">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N64">
-        <v>30</v>
+      <c r="D337">
+        <v>3.600401E-3</v>
+      </c>
+    </row>
+    <row r="338" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C338">
+        <v>26</v>
+      </c>
+      <c r="D338">
+        <v>3.565412E-3</v>
+      </c>
+    </row>
+    <row r="339" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C339">
+        <v>27</v>
+      </c>
+      <c r="D339">
+        <v>4.2070420000000002E-3</v>
+      </c>
+    </row>
+    <row r="340" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C340">
+        <v>28</v>
+      </c>
+      <c r="D340">
+        <v>4.5359659999999998E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/scripts/experiments/results.xlsx
+++ b/scripts/experiments/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="k uniform - delay" sheetId="1" r:id="rId1"/>
@@ -3052,6 +3052,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4335,6 +4336,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4457,6 +4459,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4537,6 +4540,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7820,6 +7824,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8809,6 +8814,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8931,6 +8937,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9011,6 +9018,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9135,6 +9143,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10126,6 +10135,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10249,6 +10259,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10329,6 +10340,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14040,6 +14052,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14332,6 +14345,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14457,6 +14471,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14537,6 +14552,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14652,6 +14668,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15782,6 +15799,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15907,6 +15925,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15987,6 +16006,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16111,6 +16131,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16786,6 +16807,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16911,6 +16933,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16991,6 +17014,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17115,6 +17139,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17423,6 +17448,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17545,6 +17571,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17625,6 +17652,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17749,6 +17777,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18484,6 +18513,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18606,6 +18636,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18686,6 +18717,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18810,6 +18842,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19545,6 +19578,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19668,6 +19702,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19748,6 +19783,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -32146,8 +32182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC693"/>
   <sheetViews>
-    <sheetView topLeftCell="P41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN23" sqref="AN23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44836,7 +44872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q693"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="P43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
@@ -57524,7 +57560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I34" workbookViewId="0">
+    <sheetView topLeftCell="I37" workbookViewId="0">
       <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
